--- a/Shear Center Ref.xlsx
+++ b/Shear Center Ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwob\GitHub\ShearFlowThinSections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2ABA9-B4E3-4BFF-A368-F2DD2C5766A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568E5CB-0E02-4994-82A2-50D453CDAFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="5715" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="8505" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
